--- a/biology/Médecine/Syndrome_de_Waardenburg/Syndrome_de_Waardenburg.xlsx
+++ b/biology/Médecine/Syndrome_de_Waardenburg/Syndrome_de_Waardenburg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  syndrome de Waardenburg, du nom de Petrus Johannes Waardenburg (en) (1886-1979), est une maladie génétique de transmission autosomique dominante associant une surdité avec des anomalies de la pigmentation de la peau ou des cheveux ou de l’iris. Ce syndrome appartient au grand groupe des neurocristopathies (en).
 Si un individu présente un état homozygote pour l’allèle provoquant le syndrome de Waardenburg, il y a mort au stade fœtal.
-Quatre types de ce syndrome existent (très probablement chacune associée à un type de mutation génétique). Ils font encore l'objet d'études, dont génétiques et en biologie moléculaire afin de mieux les cerner et en comprendre plus finement l'étiologie[1].
+Quatre types de ce syndrome existent (très probablement chacune associée à un type de mutation génétique). Ils font encore l'objet d'études, dont génétiques et en biologie moléculaire afin de mieux les cerner et en comprendre plus finement l'étiologie.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Waardenburg est la cause la plus fréquente de surdité syndromique à transmission dominante. 
 </t>
@@ -544,7 +558,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plus de la moitié des personnes atteintes  souffrent de 
 surdité. Il s’agit d’une surdité de perception uni ou bilatérale, profonde (supérieure à 100 décibel), pré linguale et stable ;
@@ -578,9 +594,11 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une cause repérée est la mutation du gène PAX3 situé sur le locus q3-5 du chromosome 2 codant la Paired box protein Pax-3, mais d'autres mutations ont été repérées, qui font encore l'objet d'études, pour le type I[2] et le type II notamment[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une cause repérée est la mutation du gène PAX3 situé sur le locus q3-5 du chromosome 2 codant la Paired box protein Pax-3, mais d'autres mutations ont été repérées, qui font encore l'objet d'études, pour le type I et le type II notamment.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Syndrome de Waardenburg type 2</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a une mutation allélique au niveau du gène de la couleur des yeux ce qui fait que les yeux sont de couleurs électriques.
 </t>
@@ -640,7 +660,9 @@
           <t>Syndrome de Waardenburg type 3</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plus rare des 3 types. Il s’agit d’un type 1 ou 2 avec des anomalies des membres et des muscles tel que contracture, fusion des doigts ou d’os de la main.
 </t>
@@ -671,7 +693,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr) Site en français de renseignement sur les maladies rares et les médicaments orphelins
 (en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:193500 Waardenburg type 1
@@ -679,7 +703,7 @@
 (en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:600193 Waardenburg type 2B
 (en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:148820 Waardenburg type 3
 (en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:277580 Waardenburg type 4
-(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [1]
+(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
 </t>
         </is>
       </c>
